--- a/Packages/cn.etetet.wow/Excel/StartConfig/Release/StartZoneConfig@s.xlsx
+++ b/Packages/cn.etetet.wow/Excel/StartConfig/Release/StartZoneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13785" windowHeight="11902"/>
+    <workbookView windowWidth="27945" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -1073,14 +1073,14 @@
   <dimension ref="C2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6283185840708" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
     <col min="4" max="7" width="21" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
